--- a/db/balancing/balancing.xlsx
+++ b/db/balancing/balancing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Cendric\misc\Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Visual_Studio\Cendric2\db\balancing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -426,7 +426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,8 +449,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,6 +472,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -492,18 +504,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
+    <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
     <cellStyle name="Gut" xfId="2" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1548,8 +1563,8 @@
   <dimension ref="A1:T109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1639,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
@@ -1684,7 +1699,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
@@ -1744,7 +1759,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
@@ -1804,7 +1819,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -1864,7 +1879,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
@@ -1924,7 +1939,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
@@ -1984,7 +1999,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
@@ -2044,7 +2059,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
@@ -2104,7 +2119,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B11" t="s">
@@ -2164,7 +2179,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
@@ -2198,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2220,11 +2235,11 @@
       </c>
       <c r="T12" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
@@ -2255,7 +2270,7 @@
         <v>10</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2280,11 +2295,11 @@
       </c>
       <c r="T13" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B14" t="s">
@@ -2321,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2340,11 +2355,11 @@
       </c>
       <c r="T14" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
@@ -2384,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2400,11 +2415,11 @@
       </c>
       <c r="T15" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
@@ -2464,7 +2479,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B17" t="s">
@@ -2524,7 +2539,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B18" t="s">
@@ -2584,7 +2599,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
@@ -2597,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2609,13 +2624,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2640,11 +2655,11 @@
       </c>
       <c r="T19" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B20" t="s">
@@ -2657,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2681,7 +2696,7 @@
         <v>20</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2700,11 +2715,11 @@
       </c>
       <c r="T20" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
@@ -2764,7 +2779,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B22" t="s">
@@ -2824,7 +2839,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
@@ -2884,7 +2899,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B24" t="s">
@@ -2944,7 +2959,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B25" t="s">
@@ -2972,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3000,11 +3015,11 @@
       </c>
       <c r="T25" s="1">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B26" t="s">
@@ -3041,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3050,7 +3065,7 @@
         <v>10</v>
       </c>
       <c r="P26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3060,11 +3075,11 @@
       </c>
       <c r="T26" s="1">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B27" t="s">
@@ -3124,7 +3139,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B28" t="s">
@@ -3184,14 +3199,14 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3212,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3240,18 +3255,18 @@
       </c>
       <c r="T29" s="1">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3272,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="J30">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3300,18 +3315,18 @@
       </c>
       <c r="T30" s="1">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3332,7 +3347,7 @@
         <v>4</v>
       </c>
       <c r="J31">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3360,11 +3375,11 @@
       </c>
       <c r="T31" s="1">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B32" t="s">
@@ -3383,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>10</v>
@@ -3420,11 +3435,11 @@
       </c>
       <c r="T32" s="1">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B33" t="s">
@@ -3443,16 +3458,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3473,18 +3488,18 @@
         <v>4</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B34" t="s">
@@ -3503,16 +3518,16 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J34">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3533,18 +3548,18 @@
         <v>8</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B35" t="s">
@@ -3563,13 +3578,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>5</v>
@@ -3600,11 +3615,11 @@
       </c>
       <c r="T35" s="1">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B36" t="s">
@@ -3623,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <v>10</v>
@@ -3660,11 +3675,11 @@
       </c>
       <c r="T36" s="1">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B37" t="s">
@@ -3683,13 +3698,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J37">
         <v>20</v>
@@ -3701,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>15</v>
@@ -3713,25 +3728,25 @@
         <v>4</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="T37" s="1">
         <f t="shared" si="0"/>
-        <v>286</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3740,58 +3755,58 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>8</v>
+      </c>
+      <c r="N38">
+        <v>8</v>
+      </c>
+      <c r="O38">
         <v>2</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>3</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>3</v>
       </c>
       <c r="P38">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="T38" s="1">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3800,19 +3815,19 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3821,37 +3836,37 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P39">
         <v>2</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="T39" s="1">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3860,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3881,30 +3896,30 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O40">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P40">
         <v>4</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="T40" s="1">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B41" t="s">
@@ -3920,19 +3935,19 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3941,30 +3956,30 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P41">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="T41" s="1">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B42" t="s">
@@ -3980,51 +3995,51 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
         <v>6</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>10</v>
-      </c>
       <c r="N42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P42">
         <v>2</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="T42" s="1">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B43" t="s">
@@ -4040,19 +4055,19 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4061,30 +4076,30 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O43">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P43">
         <v>4</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B44" t="s">
@@ -4100,51 +4115,51 @@
         <v>0</v>
       </c>
       <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44">
         <v>4</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>4</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>10</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>10</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>2</v>
       </c>
       <c r="P44">
         <v>2</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44">
         <v>0</v>
       </c>
       <c r="T44" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B45" t="s">
@@ -4160,51 +4175,51 @@
         <v>0</v>
       </c>
       <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>12</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>10</v>
+      </c>
+      <c r="N45">
+        <v>10</v>
+      </c>
+      <c r="O45">
         <v>8</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>8</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>20</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>15</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>4</v>
       </c>
       <c r="P45">
         <v>4</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R45">
         <v>0</v>
       </c>
       <c r="T45" s="1">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B46" t="s">
@@ -4220,51 +4235,51 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>30</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
         <v>20</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>50</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>30</v>
-      </c>
       <c r="N46">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O46">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R46">
         <v>0</v>
       </c>
       <c r="T46" s="1">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B47" t="s">
@@ -4277,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4289,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4307,7 +4322,7 @@
         <v>5</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P47">
         <v>2</v>
@@ -4320,11 +4335,11 @@
       </c>
       <c r="T47" s="1">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B48" t="s">
@@ -4337,23 +4352,23 @@
         <v>0</v>
       </c>
       <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
         <v>6</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>10</v>
-      </c>
-      <c r="J48">
-        <v>5</v>
-      </c>
       <c r="K48">
         <v>0</v>
       </c>
@@ -4364,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O48">
         <v>8</v>
@@ -4380,11 +4395,11 @@
       </c>
       <c r="T48" s="1">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B49" t="s">
@@ -4397,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4409,10 +4424,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J49">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4427,7 +4442,7 @@
         <v>20</v>
       </c>
       <c r="O49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P49">
         <v>8</v>
@@ -4440,11 +4455,11 @@
       </c>
       <c r="T49" s="1">
         <f t="shared" si="0"/>
-        <v>295</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B50" t="s">
@@ -4457,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -4469,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -4481,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N50">
+        <v>10</v>
+      </c>
+      <c r="O50">
         <v>3</v>
-      </c>
-      <c r="O50">
-        <v>2</v>
       </c>
       <c r="P50">
         <v>2</v>
@@ -4500,11 +4515,11 @@
       </c>
       <c r="T50" s="1">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B51" t="s">
@@ -4517,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4529,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J51">
         <v>3</v>
@@ -4541,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N51">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O51">
         <v>6</v>
@@ -4560,11 +4575,11 @@
       </c>
       <c r="T51" s="1">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B52" t="s">
@@ -4577,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4589,10 +4604,10 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J52">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -4601,16 +4616,16 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N52">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="O52">
         <v>12</v>
       </c>
       <c r="P52">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -4620,24 +4635,24 @@
       </c>
       <c r="T52" s="1">
         <f t="shared" si="0"/>
-        <v>262</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -4649,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J53">
         <v>10</v>
@@ -4680,24 +4695,24 @@
       </c>
       <c r="T53" s="1">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -4709,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J54">
         <v>20</v>
@@ -4740,24 +4755,24 @@
       </c>
       <c r="T54" s="1">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
       </c>
       <c r="C55">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -4769,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J55">
         <v>50</v>
@@ -4800,11 +4815,11 @@
       </c>
       <c r="T55" s="1">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B56" t="s">
@@ -4864,7 +4879,7 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B57" t="s">
@@ -4892,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -4920,11 +4935,11 @@
       </c>
       <c r="T57" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B58" t="s">
@@ -4952,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -4980,11 +4995,11 @@
       </c>
       <c r="T58" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B59" t="s">
@@ -5012,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -5040,18 +5055,18 @@
       </c>
       <c r="T59" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -5100,24 +5115,24 @@
       </c>
       <c r="T60" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5132,22 +5147,22 @@
         <v>0</v>
       </c>
       <c r="J61">
+        <v>20</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>20</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
         <v>3</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>10</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>2</v>
       </c>
       <c r="P61">
         <v>2</v>
@@ -5160,18 +5175,18 @@
       </c>
       <c r="T61" s="1">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B62" t="s">
         <v>120</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -5180,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5195,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -5210,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="P62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -5220,18 +5235,18 @@
       </c>
       <c r="T62" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B63" t="s">
         <v>120</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -5243,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -5258,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -5270,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -5280,24 +5295,24 @@
       </c>
       <c r="T63" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B64" t="s">
         <v>120</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5312,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -5340,11 +5355,11 @@
       </c>
       <c r="T64" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B65" t="s">
@@ -5369,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -5384,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -5400,18 +5415,18 @@
       </c>
       <c r="T65" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B66" t="s">
         <v>120</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -5426,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -5444,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -5453,31 +5468,31 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
       <c r="T66" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B67" t="s">
         <v>120</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5486,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -5520,11 +5535,11 @@
       </c>
       <c r="T67" s="1">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B68" t="s">
@@ -5549,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -5561,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -5580,18 +5595,18 @@
       </c>
       <c r="T68" s="1">
         <f t="shared" ref="T68:T109" si="1">SUM($C68 * 1, $D68 * 50, SUM($E68:$I68) * 5,  SUM($J68:$N68) * 1,  $O68 * 2, $P68 * 8, $Q68 * 5, $R68 * 5)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B69" t="s">
         <v>82</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5615,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -5640,18 +5655,18 @@
       </c>
       <c r="T69" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B70" t="s">
         <v>82</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -5660,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -5700,18 +5715,18 @@
       </c>
       <c r="T70" s="1">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B71" t="s">
         <v>82</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -5723,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -5760,18 +5775,18 @@
       </c>
       <c r="T71" s="1">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B72" t="s">
         <v>82</v>
       </c>
       <c r="C72">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -5792,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -5820,11 +5835,11 @@
       </c>
       <c r="T72" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B73" t="s">
@@ -5837,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5852,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>-10</v>
+        <v>-24</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -5867,10 +5882,10 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -5880,11 +5895,11 @@
       </c>
       <c r="T73" s="1">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B74" t="s">
@@ -5924,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -5933,25 +5948,25 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74">
         <v>0</v>
       </c>
       <c r="T74" s="1">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B75" t="s">
         <v>82</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -6000,11 +6015,11 @@
       </c>
       <c r="T75" s="1">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B76" t="s">
@@ -6017,13 +6032,13 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -6060,11 +6075,11 @@
       </c>
       <c r="T76" s="1">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B77" t="s">
@@ -6077,10 +6092,10 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -6120,24 +6135,24 @@
       </c>
       <c r="T77" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B78" t="s">
         <v>85</v>
       </c>
       <c r="C78">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6180,30 +6195,30 @@
       </c>
       <c r="T78" s="1">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B79" t="s">
         <v>85</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -6240,33 +6255,33 @@
       </c>
       <c r="T79" s="1">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
       </c>
       <c r="C80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -6290,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -6300,11 +6315,11 @@
       </c>
       <c r="T80" s="1">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B81" t="s">
@@ -6320,10 +6335,10 @@
         <v>5</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G81">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -6360,11 +6375,11 @@
       </c>
       <c r="T81" s="1">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B82" t="s">
@@ -6424,14 +6439,14 @@
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B83" t="s">
         <v>85</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -6480,24 +6495,24 @@
       </c>
       <c r="T83" s="1">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6509,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -6540,24 +6555,24 @@
       </c>
       <c r="T84" s="1">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6600,18 +6615,18 @@
       </c>
       <c r="T85" s="1">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -6647,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P86">
         <v>5</v>
@@ -6660,18 +6675,18 @@
       </c>
       <c r="T86" s="1">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B87" t="s">
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -6680,13 +6695,13 @@
         <v>10</v>
       </c>
       <c r="F87">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6707,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P87">
         <v>8</v>
@@ -6720,18 +6735,18 @@
       </c>
       <c r="T87" s="1">
         <f t="shared" si="1"/>
-        <v>314</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B88" t="s">
         <v>85</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -6743,13 +6758,13 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -6767,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P88">
         <v>8</v>
@@ -6780,18 +6795,18 @@
       </c>
       <c r="T88" s="1">
         <f t="shared" si="1"/>
-        <v>314</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B89" t="s">
         <v>85</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -6840,18 +6855,18 @@
       </c>
       <c r="T89" s="1">
         <f t="shared" si="1"/>
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B90" t="s">
         <v>85</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -6860,13 +6875,13 @@
         <v>20</v>
       </c>
       <c r="F90">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -6887,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="O90">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P90">
         <v>4</v>
@@ -6900,18 +6915,18 @@
       </c>
       <c r="T90" s="1">
         <f t="shared" si="1"/>
-        <v>362</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B91" t="s">
         <v>85</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -6923,13 +6938,13 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -6947,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="O91">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P91">
         <v>4</v>
@@ -6960,24 +6975,24 @@
       </c>
       <c r="T91" s="1">
         <f t="shared" si="1"/>
-        <v>362</v>
+        <v>430</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B92" t="s">
         <v>85</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F92">
         <v>10</v>
@@ -6989,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -7020,33 +7035,33 @@
       </c>
       <c r="T92" s="1">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B93" t="s">
         <v>85</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F93">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -7080,36 +7095,36 @@
       </c>
       <c r="T93" s="1">
         <f t="shared" si="1"/>
-        <v>338</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B94" t="s">
         <v>85</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -7140,18 +7155,18 @@
       </c>
       <c r="T94" s="1">
         <f t="shared" si="1"/>
-        <v>338</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B95" t="s">
         <v>85</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -7187,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="P95">
         <v>1</v>
@@ -7200,18 +7215,18 @@
       </c>
       <c r="T95" s="1">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B96" t="s">
         <v>85</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -7247,10 +7262,10 @@
         <v>0</v>
       </c>
       <c r="O96">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="P96">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -7260,18 +7275,18 @@
       </c>
       <c r="T96" s="1">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B97" t="s">
         <v>85</v>
       </c>
       <c r="C97">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -7292,46 +7307,46 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O97">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R97">
         <v>8</v>
       </c>
       <c r="T97" s="1">
         <f t="shared" si="1"/>
-        <v>255</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B98" t="s">
         <v>85</v>
       </c>
       <c r="C98">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -7349,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -7361,30 +7376,30 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R98">
         <v>8</v>
       </c>
       <c r="T98" s="1">
         <f t="shared" si="1"/>
-        <v>245</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B99" t="s">
@@ -7444,7 +7459,7 @@
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B100" t="s">
@@ -7504,7 +7519,7 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B101" t="s">
@@ -7564,7 +7579,7 @@
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B102" t="s">
@@ -7580,13 +7595,13 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -7598,19 +7613,19 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O102">
         <v>0</v>
       </c>
       <c r="P102">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -7620,11 +7635,11 @@
       </c>
       <c r="T102" s="1">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B103" t="s">
@@ -7637,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7670,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="P103">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -7680,11 +7695,11 @@
       </c>
       <c r="T103" s="1">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B104" t="s">
@@ -7744,20 +7759,20 @@
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B105" t="s">
         <v>85</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7775,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -7787,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P105">
         <v>10</v>
@@ -7800,18 +7815,18 @@
       </c>
       <c r="T105" s="1">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B106" t="s">
         <v>85</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -7850,28 +7865,28 @@
         <v>0</v>
       </c>
       <c r="P106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R106">
         <v>6</v>
       </c>
       <c r="T106" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B107" t="s">
         <v>85</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -7920,18 +7935,18 @@
       </c>
       <c r="T107" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B108" t="s">
         <v>85</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -7980,11 +7995,11 @@
       </c>
       <c r="T108" s="1">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B109" t="s">
@@ -8446,7 +8461,7 @@
       <formula>($B1="eq_neck")*(D1&gt;1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="101">
-      <formula>($B1&lt;&gt;"eq_neck")*(D1&gt;0)</formula>
+      <formula>($B1&lt;&gt;"eq_neck")*(D1&gt;0)*(D1&lt;&gt;"Reg")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/db/balancing/balancing.xlsx
+++ b/db/balancing/balancing.xlsx
@@ -4158,8 +4158,8 @@
   <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8523,22 +8523,22 @@
         <v>1</v>
       </c>
       <c r="J74" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K74" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L74" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M74" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N74" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O74" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P74" s="2">
         <v>0</v>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="T74" s="3">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
